--- a/config/project/直流充电桩板级检验/报表模板.xlsx
+++ b/config/project/直流充电桩板级检验/报表模板.xlsx
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>检测项目</t>
   </si>
@@ -391,19 +391,19 @@
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>合格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2017/12/21-12:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -428,115 +428,115 @@
   </si>
   <si>
     <t>检查结果：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查人：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日  期：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCE </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东万城万充电动车运营股份有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产批号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格版本：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电板编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">■ MQC6000-90  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘检测板编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K60（DCM）板编号:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU板编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G模块编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源板编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背板编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0-171101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块规格：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流充电机板级检验报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编号：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查人：</t>
+    <t>外观内部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM读写测试（fr）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日  期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCE </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东万城万充电动车运营股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产批号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格版本：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继电板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">■ MQC6000-90  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘检测板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K60（DCM）板编号:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G模块编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1.0-171101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块规格：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流充电机板级检验报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观内部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAM读写测试（fr）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>先向FRAM发写命令，收到指定报文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SPIFLASH(sf)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>先向SPIFLASH发写命令，收到指定报文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>三路CAN功能正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,7 +553,7 @@
       </rPr>
       <t>AN0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -570,7 +570,7 @@
       </rPr>
       <t>AN1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -587,71 +587,71 @@
       </rPr>
       <t>AN2</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从串口（9600，N，8，1）收发报文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置di全关状态，发送DI报文，判断报文，16个开关未合上，DIN00-DIN15 状态为0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置依次两组全合状态，发送DI报文，判断报文，16个开关合上，DIN00-DIN15 状态为1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送do 1命令，继电器LED灯全亮，Do 1时DO00-DO15 为1继电器LED灯全亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送do 0命令，继电器LED灯全灭，为0继电器LED灯全灭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiadc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流控制功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从串口（9600，N，8，1）收发报文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置di全关状态，发送DI报文，判断报文，16个开关未合上，DIN00-DIN15 状态为0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置依次两组全合状态，发送DI报文，判断报文，16个开关合上，DIN00-DIN15 状态为1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送do 1命令，继电器LED灯全亮，Do 1时DO00-DO15 为1继电器LED灯全亮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送do 0命令，继电器LED灯全灭，为0继电器LED灯全灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spiadc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流控制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPIAD开关全关状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SPIAD开关全开状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SPI_ADC0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SPI_ADC1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SPI_ADC2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SPI_ADC3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -668,201 +668,201 @@
       </rPr>
       <t>.3V</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD采样及IODI 检测（关闭状态）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭上ADC开关（17-18），关闭防接反开关，输入adc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_SE17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC0_SE18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1_SE7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>odi防接反IO状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_DI5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD采样及IODI 检测（合状态）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打上ADC开关（17-18），打开防接反开关，输入adc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iodi防接反IO状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合格</t>
+    <t>看门狗短路片为拆去状态，看门狗有效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级程序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AD采样及IODI 检测（关闭状态）</t>
+    <t>升级正确程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗出厂设备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关闭上ADC开关（17-18），关闭防接反开关，输入adc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC0_SE17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC0_SE18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC1_SE4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC1_SE5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC1_SE6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC1_SE7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>odi防接反IO状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO_DI4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO_DI5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD采样及IODI 检测（合状态）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打上ADC开关（17-18），打开防接反开关，输入adc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iodi防接反IO状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗短路片为拆去状态，看门狗有效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级正确程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看门狗出厂设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看门狗短路插片JP2升完程序后拆下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电池电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电池电压需在3.2V 以上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>弹窗人工判</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">时钟测试
 (rtc)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>断电后能读回设置的时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能正确写入时间，能走时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>写入时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>读回时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>时间运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>`2017/12/27  12:00:01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>`2017/12/27  12:00:03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>断电保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>选枪按键测试（key）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>按下枪1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>按下枪2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>返回键值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>485及读卡器口测试（uart））</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CARD1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CARD2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>485向两读卡串口(CARD1、CARD2）收发报文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GPRS功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能连接、检测到SIM卡、上线、PING外网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -879,7 +879,7 @@
       </rPr>
       <t>3V</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -896,81 +896,81 @@
       </rPr>
       <t>2.1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LED板测试（disp、card）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数码管会顺序点亮至灭掉。查看有无缺段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SPK测试
 (play)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>向口串口发送命令，喇叭播放音乐，声音洪亮清晰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>网络测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打开网络调试助手，能收到发送数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升级正确BOOT程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>升级正确应用程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收到报文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>发送报文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能强制复位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主从通讯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>K64板能与K60板正常通讯，收发报文正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主控板功能测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>人工弹窗判断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2、K60、K64板看门狗短路片在测试前全拆下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1、无破损、变形、明显划伤等不良现象；各模块安装正确，无变形、松动等 不良现象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -984,7 +984,7 @@
       </rPr>
       <t>alue2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -998,15 +998,15 @@
       </rPr>
       <t>alue3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1020,30 +1020,294 @@
       </rPr>
       <t>alue6</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult12</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value20</t>
+  </si>
+  <si>
+    <t>value21</t>
+  </si>
+  <si>
+    <t>value22</t>
+  </si>
+  <si>
+    <t>value23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value24</t>
+  </si>
+  <si>
+    <t>value25</t>
+  </si>
+  <si>
+    <t>value26</t>
+  </si>
+  <si>
+    <t>value27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value28</t>
+  </si>
+  <si>
+    <t>value29</t>
+  </si>
+  <si>
+    <t>value30</t>
+  </si>
+  <si>
+    <t>value31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value32</t>
+  </si>
+  <si>
+    <t>value33</t>
+  </si>
+  <si>
+    <t>value34</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue35</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>value39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value40</t>
+  </si>
+  <si>
+    <t>value41</t>
+  </si>
+  <si>
+    <t>value42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value43</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value44</t>
+  </si>
+  <si>
+    <t>value45</t>
+  </si>
+  <si>
+    <t>value46</t>
+  </si>
+  <si>
+    <t>value47</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value48</t>
+  </si>
+  <si>
+    <t>value49</t>
+  </si>
+  <si>
+    <t>value50</t>
+  </si>
+  <si>
+    <t>value14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1210,212 +1474,224 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1758,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1790,29 +2066,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="53"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="20"/>
@@ -1823,21 +2099,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
@@ -1853,60 +2129,60 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="53" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53" t="s">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="59"/>
+      <c r="J8" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="29" t="s">
         <v>130</v>
       </c>
@@ -1933,19 +2209,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="34" t="s">
         <v>2</v>
       </c>
@@ -1954,23 +2230,23 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="32" t="s">
-        <v>4</v>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>5</v>
@@ -1978,19 +2254,19 @@
       <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="32" t="s">
-        <v>4</v>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>5</v>
@@ -2000,130 +2276,130 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="32" t="s">
-        <v>4</v>
+      <c r="G14" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="42"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="32" t="s">
-        <v>4</v>
+      <c r="G15" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="38" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="38" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="42"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="38" t="s">
         <v>113</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>114</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>4</v>
@@ -2134,205 +2410,205 @@
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="39">
-        <v>0</v>
-      </c>
-      <c r="G19" s="39">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="39">
-        <v>0</v>
-      </c>
-      <c r="J19" s="65" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="39">
-        <v>0</v>
-      </c>
-      <c r="G20" s="39">
-        <v>0</v>
-      </c>
-      <c r="H20" s="39">
-        <v>0</v>
-      </c>
-      <c r="I20" s="39">
-        <v>0</v>
-      </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="39">
-        <v>0</v>
-      </c>
-      <c r="G21" s="39">
-        <v>0</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0</v>
-      </c>
-      <c r="I21" s="39">
-        <v>0</v>
-      </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="39">
-        <v>0</v>
-      </c>
-      <c r="G22" s="39">
-        <v>0</v>
-      </c>
-      <c r="H22" s="39">
-        <v>0</v>
-      </c>
-      <c r="I22" s="39">
-        <v>0</v>
-      </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="43" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="39">
-        <v>1</v>
-      </c>
-      <c r="G23" s="39">
-        <v>1</v>
-      </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
-      <c r="I23" s="39">
-        <v>1</v>
-      </c>
-      <c r="J23" s="65" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="39">
-        <v>1</v>
-      </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="39">
-        <v>1</v>
-      </c>
-      <c r="I24" s="39">
-        <v>1</v>
-      </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="39">
-        <v>1</v>
-      </c>
-      <c r="G25" s="39">
-        <v>1</v>
-      </c>
-      <c r="H25" s="39">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39">
-        <v>1</v>
-      </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="39">
-        <v>1</v>
-      </c>
-      <c r="G26" s="39">
-        <v>1</v>
-      </c>
-      <c r="H26" s="39">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39">
-        <v>1</v>
-      </c>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="39">
         <v>1</v>
       </c>
@@ -2345,20 +2621,20 @@
       <c r="I27" s="39">
         <v>1</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="66" t="s">
+      <c r="K27" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="39">
         <v>1</v>
       </c>
@@ -2371,16 +2647,16 @@
       <c r="I28" s="39">
         <v>1</v>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="39">
         <v>1</v>
       </c>
@@ -2393,16 +2669,16 @@
       <c r="I29" s="39">
         <v>1</v>
       </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="39">
         <v>1</v>
       </c>
@@ -2415,18 +2691,18 @@
       <c r="I30" s="39">
         <v>1</v>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="43" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="39">
         <v>0</v>
       </c>
@@ -2439,20 +2715,20 @@
       <c r="I31" s="39">
         <v>0</v>
       </c>
-      <c r="J31" s="65" t="s">
+      <c r="J31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="66" t="s">
+      <c r="K31" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="39">
         <v>0</v>
       </c>
@@ -2465,16 +2741,16 @@
       <c r="I32" s="39">
         <v>0</v>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="66"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="39">
         <v>0</v>
       </c>
@@ -2487,16 +2763,16 @@
       <c r="I33" s="39">
         <v>0</v>
       </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="66"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="56"/>
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="39">
         <v>0</v>
       </c>
@@ -2509,20 +2785,20 @@
       <c r="I34" s="39">
         <v>0</v>
       </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="66"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="56"/>
       <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="38" t="s">
         <v>50</v>
       </c>
@@ -2535,20 +2811,20 @@
       <c r="I35" s="39">
         <v>0</v>
       </c>
-      <c r="J35" s="65" t="s">
+      <c r="J35" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="66" t="s">
+      <c r="K35" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L35" s="33"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="38" t="s">
         <v>52</v>
       </c>
@@ -2561,18 +2837,18 @@
       <c r="I36" s="39">
         <v>0</v>
       </c>
-      <c r="J36" s="65"/>
-      <c r="K36" s="66"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
       <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="43" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="38" t="s">
         <v>50</v>
       </c>
@@ -2585,20 +2861,20 @@
       <c r="I37" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="65" t="s">
+      <c r="J37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="66" t="s">
+      <c r="K37" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="38" t="s">
         <v>52</v>
       </c>
@@ -2611,20 +2887,20 @@
       <c r="I38" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="65"/>
-      <c r="K38" s="66"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
       <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="38" t="s">
         <v>58</v>
       </c>
@@ -2637,20 +2913,20 @@
       <c r="I39" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="65" t="s">
+      <c r="J39" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="38" t="s">
         <v>60</v>
       </c>
@@ -2663,16 +2939,16 @@
       <c r="I40" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J40" s="65"/>
-      <c r="K40" s="66"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="56"/>
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="38" t="s">
         <v>62</v>
       </c>
@@ -2685,18 +2961,18 @@
       <c r="I41" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="65"/>
-      <c r="K41" s="66"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="56"/>
       <c r="L41" s="33"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="43" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="38" t="s">
         <v>66</v>
       </c>
@@ -2709,20 +2985,20 @@
       <c r="I42" s="40">
         <v>1</v>
       </c>
-      <c r="J42" s="65"/>
-      <c r="K42" s="66"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="56"/>
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="38" t="s">
         <v>58</v>
       </c>
@@ -2735,20 +3011,20 @@
       <c r="I43" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="65" t="s">
+      <c r="J43" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="66" t="s">
+      <c r="K43" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="38" t="s">
         <v>60</v>
       </c>
@@ -2761,16 +3037,16 @@
       <c r="I44" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J44" s="65"/>
-      <c r="K44" s="66"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="33"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="38" t="s">
         <v>62</v>
       </c>
@@ -2783,18 +3059,18 @@
       <c r="I45" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J45" s="65"/>
-      <c r="K45" s="66"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="56"/>
       <c r="L45" s="33"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="43" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="38" t="s">
         <v>66</v>
       </c>
@@ -2807,28 +3083,28 @@
       <c r="I46" s="40">
         <v>0</v>
       </c>
-      <c r="J46" s="65"/>
-      <c r="K46" s="66"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
       <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="32" t="s">
         <v>4</v>
       </c>
@@ -2838,23 +3114,23 @@
       <c r="L47" s="41"/>
     </row>
     <row r="48" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
       <c r="J48" s="32" t="s">
         <v>4</v>
       </c>
@@ -2864,23 +3140,23 @@
       <c r="L48" s="33"/>
     </row>
     <row r="49" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
       <c r="J49" s="32" t="s">
         <v>4</v>
       </c>
@@ -2892,25 +3168,25 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="57" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
       <c r="J50" s="32" t="s">
         <v>4</v>
       </c>
@@ -2922,23 +3198,23 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
       <c r="J51" s="32" t="s">
         <v>4</v>
       </c>
@@ -2948,24 +3224,24 @@
       <c r="L51" s="41"/>
     </row>
     <row r="52" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="65" t="s">
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55" t="s">
         <v>4</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -2974,177 +3250,177 @@
       <c r="L52" s="41"/>
     </row>
     <row r="53" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="65"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="55"/>
       <c r="K53" s="9"/>
       <c r="L53" s="41"/>
     </row>
     <row r="54" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="48" t="s">
+      <c r="G54" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="65"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L54" s="41"/>
     </row>
     <row r="55" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G55" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="65"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="55"/>
       <c r="K55" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L55" s="41"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G56" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="65" t="s">
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K56" s="66" t="s">
+      <c r="K56" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="43" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="45" t="s">
+      <c r="G57" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="66"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="56"/>
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="45" t="s">
+      <c r="G58" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="65" t="s">
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="66" t="s">
+      <c r="K58" s="56" t="s">
         <v>5</v>
       </c>
       <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="66"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="56"/>
       <c r="L59" s="41"/>
     </row>
     <row r="60" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G60" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
       <c r="J60" s="32" t="s">
         <v>4</v>
       </c>
@@ -3154,23 +3430,23 @@
       <c r="L60" s="41"/>
     </row>
     <row r="61" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G61" s="45" t="s">
+      <c r="G61" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
       <c r="J61" s="32" t="s">
         <v>4</v>
       </c>
@@ -3180,23 +3456,23 @@
       <c r="L61" s="41"/>
     </row>
     <row r="62" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
       <c r="J62" s="32" t="s">
         <v>4</v>
       </c>
@@ -3206,23 +3482,23 @@
       <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G63" s="45" t="s">
+      <c r="G63" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
       <c r="J63" s="32" t="s">
         <v>4</v>
       </c>
@@ -3232,23 +3508,23 @@
       <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="G64" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
       <c r="J64" s="32" t="s">
         <v>4</v>
       </c>
@@ -3258,23 +3534,23 @@
       <c r="L64" s="41"/>
     </row>
     <row r="65" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
       <c r="J65" s="32" t="s">
         <v>4</v>
       </c>
@@ -3284,23 +3560,23 @@
       <c r="L65" s="41"/>
     </row>
     <row r="66" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G66" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
       <c r="J66" s="32" t="s">
         <v>4</v>
       </c>
@@ -3310,21 +3586,21 @@
       <c r="L66" s="33"/>
     </row>
     <row r="67" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="43" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="32" t="s">
         <v>4</v>
       </c>
@@ -3334,23 +3610,23 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
       <c r="J68" s="32" t="s">
         <v>4</v>
       </c>
@@ -3374,13 +3650,13 @@
       <c r="D71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
       <c r="J71" s="10" t="s">
         <v>10</v>
       </c>
@@ -3412,7 +3688,6 @@
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A14:A49"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="G51:I51"/>
@@ -3423,6 +3698,12 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:E45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:E30"/>
+    <mergeCell ref="C31:E34"/>
     <mergeCell ref="J43:J46"/>
     <mergeCell ref="K43:K46"/>
     <mergeCell ref="C46:E46"/>
@@ -3437,7 +3718,6 @@
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B39:B42"/>
     <mergeCell ref="J39:J42"/>
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="J37:J38"/>
@@ -3445,14 +3725,9 @@
     <mergeCell ref="J31:J34"/>
     <mergeCell ref="J19:J22"/>
     <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B35:B38"/>
     <mergeCell ref="C39:E41"/>
     <mergeCell ref="C19:E22"/>
     <mergeCell ref="C23:E26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:E30"/>
-    <mergeCell ref="C31:E34"/>
     <mergeCell ref="K39:K42"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="D7:E7"/>
@@ -3464,6 +3739,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A14:A49"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A54:A68"/>
@@ -3513,7 +3789,7 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="G60:I60"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.39370078740157483" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/直流充电桩板级检验/报表模板.xlsx
+++ b/config/project/直流充电桩板级检验/报表模板.xlsx
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="254">
   <si>
     <t>检测项目</t>
   </si>
@@ -654,23 +654,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.3V</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>合格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -707,10 +690,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.3V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>odi防接反IO状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -732,14 +711,6 @@
   </si>
   <si>
     <t>iodi防接反IO状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0V</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -809,14 +780,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>`2017/12/27  12:00:01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>`2017/12/27  12:00:03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>断电保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -862,40 +825,6 @@
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3V</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.1</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1085,14 +1014,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>result17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>result18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>value19</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1280,15 +1201,494 @@
     <t>value50</t>
   </si>
   <si>
-    <t>value14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value16</t>
+    <t>value51</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value52</t>
+  </si>
+  <si>
+    <t>value53</t>
+  </si>
+  <si>
+    <t>value54</t>
+  </si>
+  <si>
+    <t>value55</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value56</t>
+  </si>
+  <si>
+    <t>value57</t>
+  </si>
+  <si>
+    <t>value58</t>
+  </si>
+  <si>
+    <t>value59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value60</t>
+  </si>
+  <si>
+    <t>value61</t>
+  </si>
+  <si>
+    <t>value62</t>
+  </si>
+  <si>
+    <t>value63</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value64</t>
+  </si>
+  <si>
+    <t>value65</t>
+  </si>
+  <si>
+    <t>value66</t>
+  </si>
+  <si>
+    <t>value67</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value68</t>
+  </si>
+  <si>
+    <t>value69</t>
+  </si>
+  <si>
+    <t>value70</t>
+  </si>
+  <si>
+    <t>value71</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value72</t>
+  </si>
+  <si>
+    <t>value73</t>
+  </si>
+  <si>
+    <t>value74</t>
+  </si>
+  <si>
+    <t>value75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value76</t>
+  </si>
+  <si>
+    <t>value77</t>
+  </si>
+  <si>
+    <t>value78</t>
+  </si>
+  <si>
+    <t>value79</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value80</t>
+  </si>
+  <si>
+    <t>value81</t>
+  </si>
+  <si>
+    <t>value82</t>
+  </si>
+  <si>
+    <t>value83</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value84</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value85</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value86</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value87</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value88</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value89</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value91</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value92</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value93</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value94</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value95</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value96</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value97</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value98</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value105</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value106</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value112</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value113</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value114</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value115</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value116</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value117</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value118</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value119</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result121</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result122</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value126</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value127</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult126</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult127</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult128</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>result12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult107</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result108</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult109</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result110</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1474,7 +1874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,18 +2016,84 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,63 +2102,6 @@
     </xf>
     <xf numFmtId="22" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,7 +2444,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -2066,29 +2475,29 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="69" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="60"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="20"/>
@@ -2099,21 +2508,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+        <v>115</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
@@ -2129,62 +2538,62 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="59" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="60"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="59" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="60"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="29" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -2209,19 +2618,19 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="34" t="s">
         <v>2</v>
       </c>
@@ -2230,23 +2639,23 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="C12" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>5</v>
@@ -2254,102 +2663,102 @@
       <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="46" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="46" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="38" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="J16" s="55" t="s">
         <v>4</v>
@@ -2357,49 +2766,49 @@
       <c r="K16" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="38" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="55"/>
       <c r="K17" s="56"/>
-      <c r="L17" s="47"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="38" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>4</v>
@@ -2410,28 +2819,28 @@
       <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="42" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="57" t="s">
         <v>4</v>
       </c>
       <c r="K19" s="56" t="s">
@@ -2440,90 +2849,90 @@
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="56"/>
       <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="42" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J21" s="55"/>
       <c r="K21" s="56"/>
       <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="42" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J22" s="55"/>
       <c r="K22" s="56"/>
       <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="48" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="42" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J23" s="55" t="s">
         <v>4</v>
@@ -2534,92 +2943,92 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="42" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J24" s="55"/>
       <c r="K24" s="56"/>
       <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="42" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="56"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="42" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J26" s="55"/>
       <c r="K26" s="56"/>
       <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="39">
-        <v>1</v>
-      </c>
-      <c r="G27" s="39">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39">
-        <v>1</v>
-      </c>
-      <c r="I27" s="39">
-        <v>1</v>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="J27" s="55" t="s">
         <v>4</v>
@@ -2630,90 +3039,90 @@
       <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="39">
-        <v>1</v>
-      </c>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39">
-        <v>1</v>
-      </c>
-      <c r="I28" s="39">
-        <v>1</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="J28" s="55"/>
       <c r="K28" s="56"/>
       <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="39">
-        <v>1</v>
-      </c>
-      <c r="G29" s="39">
-        <v>1</v>
-      </c>
-      <c r="H29" s="39">
-        <v>1</v>
-      </c>
-      <c r="I29" s="39">
-        <v>1</v>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="56"/>
       <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="39">
-        <v>1</v>
-      </c>
-      <c r="G30" s="39">
-        <v>1</v>
-      </c>
-      <c r="H30" s="39">
-        <v>1</v>
-      </c>
-      <c r="I30" s="39">
-        <v>1</v>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="J30" s="55"/>
       <c r="K30" s="56"/>
       <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="39">
-        <v>0</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
-        <v>0</v>
-      </c>
-      <c r="I31" s="39">
-        <v>0</v>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>180</v>
       </c>
       <c r="J31" s="55" t="s">
         <v>4</v>
@@ -2724,92 +3133,92 @@
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="39">
-        <v>0</v>
-      </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
-        <v>0</v>
-      </c>
-      <c r="I32" s="39">
-        <v>0</v>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>184</v>
       </c>
       <c r="J32" s="55"/>
       <c r="K32" s="56"/>
       <c r="L32" s="33"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="39">
-        <v>0</v>
-      </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
-        <v>0</v>
-      </c>
-      <c r="I33" s="39">
-        <v>0</v>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="J33" s="55"/>
       <c r="K33" s="56"/>
       <c r="L33" s="33"/>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="39">
-        <v>0</v>
-      </c>
-      <c r="G34" s="39">
-        <v>0</v>
-      </c>
-      <c r="H34" s="39">
-        <v>0</v>
-      </c>
-      <c r="I34" s="39">
-        <v>0</v>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="56"/>
       <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="39">
-        <v>0</v>
+      <c r="G35" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="39">
-        <v>0</v>
+      <c r="I35" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="J35" s="55" t="s">
         <v>4</v>
@@ -2820,46 +3229,46 @@
       <c r="L35" s="33"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="39">
-        <v>0</v>
+      <c r="G36" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="39">
-        <v>0</v>
+      <c r="I36" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="J36" s="55"/>
       <c r="K36" s="56"/>
       <c r="L36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="48" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="38" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>51</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="J37" s="55" t="s">
         <v>4</v>
@@ -2870,48 +3279,48 @@
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>53</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="J38" s="55"/>
       <c r="K38" s="56"/>
       <c r="L38" s="33"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="38" t="s">
+      <c r="G39" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>59</v>
-      </c>
       <c r="I39" s="40" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="J39" s="55" t="s">
         <v>4</v>
@@ -2922,94 +3331,94 @@
       <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>61</v>
-      </c>
       <c r="I40" s="40" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="J40" s="55"/>
       <c r="K40" s="56"/>
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>63</v>
-      </c>
       <c r="I41" s="40" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="J41" s="55"/>
       <c r="K41" s="56"/>
       <c r="L41" s="33"/>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="48" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="40">
-        <v>1</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="40">
-        <v>1</v>
+      <c r="I42" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="J42" s="55"/>
       <c r="K42" s="56"/>
       <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>71</v>
+      <c r="I43" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="J43" s="55" t="s">
         <v>4</v>
@@ -3020,93 +3429,93 @@
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>61</v>
-      </c>
       <c r="I44" s="40" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="J44" s="55"/>
       <c r="K44" s="56"/>
       <c r="L44" s="33"/>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>63</v>
-      </c>
       <c r="I45" s="40" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="J45" s="55"/>
       <c r="K45" s="56"/>
       <c r="L45" s="33"/>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
       <c r="F46" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="40">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>215</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="J46" s="55"/>
       <c r="K46" s="56"/>
       <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="49" t="s">
+        <v>249</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>5</v>
@@ -3114,25 +3523,25 @@
       <c r="L47" s="41"/>
     </row>
     <row r="48" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="50" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>219</v>
       </c>
       <c r="H48" s="54"/>
       <c r="I48" s="54"/>
-      <c r="J48" s="32" t="s">
-        <v>4</v>
+      <c r="J48" s="49" t="s">
+        <v>250</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>5</v>
@@ -3140,83 +3549,83 @@
       <c r="L48" s="33"/>
     </row>
     <row r="49" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="49" t="s">
+        <v>251</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
-        <v>118</v>
+      <c r="A50" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
+        <v>76</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>103</v>
+        <v>76</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>220</v>
       </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
-      <c r="J50" s="32" t="s">
-        <v>4</v>
+      <c r="J50" s="49" t="s">
+        <v>253</v>
       </c>
       <c r="K50" s="35" t="s">
         <v>5</v>
       </c>
       <c r="L50" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>5</v>
@@ -3224,20 +3633,20 @@
       <c r="L51" s="41"/>
     </row>
     <row r="52" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>222</v>
       </c>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
@@ -3250,40 +3659,40 @@
       <c r="L52" s="41"/>
     </row>
     <row r="53" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
       <c r="J53" s="55"/>
       <c r="K53" s="9"/>
       <c r="L53" s="41"/>
     </row>
     <row r="54" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="57" t="s">
+      <c r="A54" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="53" t="s">
-        <v>90</v>
+      <c r="G54" s="75" t="s">
+        <v>224</v>
       </c>
       <c r="H54" s="54"/>
       <c r="I54" s="54"/>
@@ -3294,19 +3703,19 @@
       <c r="L54" s="41"/>
     </row>
     <row r="55" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
+        <v>85</v>
+      </c>
+      <c r="G55" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
       <c r="J55" s="55"/>
       <c r="K55" s="9" t="s">
         <v>5</v>
@@ -3314,23 +3723,23 @@
       <c r="L55" s="41"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
+        <v>89</v>
+      </c>
+      <c r="G56" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
       <c r="J56" s="55" t="s">
         <v>4</v>
       </c>
@@ -3340,43 +3749,43 @@
       <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
+        <v>89</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="55"/>
       <c r="K57" s="56"/>
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
+        <v>91</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
       <c r="J58" s="55" t="s">
         <v>4</v>
       </c>
@@ -3386,43 +3795,43 @@
       <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="G59" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="55"/>
       <c r="K59" s="56"/>
       <c r="L59" s="41"/>
     </row>
     <row r="60" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
+        <v>94</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="49" t="s">
+        <v>248</v>
       </c>
       <c r="K60" s="35" t="s">
         <v>5</v>
@@ -3430,25 +3839,25 @@
       <c r="L60" s="41"/>
     </row>
     <row r="61" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
+        <v>97</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="49" t="s">
+        <v>247</v>
       </c>
       <c r="K61" s="35" t="s">
         <v>5</v>
@@ -3456,25 +3865,25 @@
       <c r="L61" s="41"/>
     </row>
     <row r="62" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
+        <v>99</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="49" t="s">
+        <v>246</v>
       </c>
       <c r="K62" s="35" t="s">
         <v>5</v>
@@ -3482,25 +3891,25 @@
       <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
+        <v>101</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="49" t="s">
+        <v>245</v>
       </c>
       <c r="K63" s="35" t="s">
         <v>5</v>
@@ -3508,25 +3917,25 @@
       <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
+        <v>108</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="49" t="s">
+        <v>244</v>
       </c>
       <c r="K64" s="35" t="s">
         <v>5</v>
@@ -3534,25 +3943,25 @@
       <c r="L64" s="41"/>
     </row>
     <row r="65" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
       <c r="F65" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="49" t="s">
+        <v>235</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>5</v>
@@ -3560,25 +3969,25 @@
       <c r="L65" s="41"/>
     </row>
     <row r="66" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="50" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="G66" s="53" t="s">
+        <v>236</v>
       </c>
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
-      <c r="J66" s="32" t="s">
-        <v>4</v>
+      <c r="J66" s="49" t="s">
+        <v>238</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>5</v>
@@ -3586,23 +3995,23 @@
       <c r="L66" s="33"/>
     </row>
     <row r="67" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" s="50" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>237</v>
       </c>
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
-      <c r="J67" s="32" t="s">
-        <v>4</v>
+      <c r="J67" s="49" t="s">
+        <v>239</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>5</v>
@@ -3610,31 +4019,31 @@
       <c r="L67" s="33"/>
     </row>
     <row r="68" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="32" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G68" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="49" t="s">
+        <v>240</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L68" s="41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3650,13 +4059,13 @@
       <c r="D71" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
       <c r="G71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
       <c r="J71" s="10" t="s">
         <v>10</v>
       </c>
@@ -3664,46 +4073,66 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:E45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:E30"/>
-    <mergeCell ref="C31:E34"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A14:A49"/>
     <mergeCell ref="J43:J46"/>
     <mergeCell ref="K43:K46"/>
     <mergeCell ref="C46:E46"/>
@@ -3728,66 +4157,46 @@
     <mergeCell ref="C39:E41"/>
     <mergeCell ref="C19:E22"/>
     <mergeCell ref="C23:E26"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A14:A49"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:E45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="C27:E30"/>
+    <mergeCell ref="C31:E34"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.39370078740157483" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
